--- a/TimeFrame.xlsx
+++ b/TimeFrame.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Ngày lên kế hoạch:</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Ngoài ra còn có các khung D1 hay W1 nhưng đối với những người giao dịch ngắn hạn trong ngày hoặc vài ngày thì chỉ cần xem qua khi kết thúc ngày hoặc kết thúc tuần thôi</t>
+  </si>
+  <si>
+    <t>Đối với các cặp tiền khác thì ta sẽ quan sát từ timeframe nhỏ rồi tăng dần đến khi thấy được cấu trúc thị trường rõ ràng, những con sóng chạy thành xu hướng thì sẽ lấy timeframe đó làm cơ sở cho việc phân tích và vào lệnh</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,6 +933,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
